--- a/uploads/excel/201707/product_tos.xlsx
+++ b/uploads/excel/201707/product_tos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\maproject\uploads\excel\201707\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>part_number</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>1 MSA 1.6TB 12G SAS MU 2.5in SSD</t>
+  </si>
+  <si>
+    <t>N9X91ASA</t>
   </si>
 </sst>
 </file>
@@ -441,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -490,7 +493,7 @@
         <v>8</v>
       </c>
       <c r="F2">
-        <v>358000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -650,6 +653,26 @@
         <v>32</v>
       </c>
       <c r="F10">
+        <v>98400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11">
         <v>98400</v>
       </c>
     </row>
